--- a/results_exact/3_transbordo_porto.xlsx
+++ b/results_exact/3_transbordo_porto.xlsx
@@ -444,36 +444,36 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>178404.652</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -485,20 +485,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>178404.652</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>732242.9785042206</v>
       </c>
     </row>
     <row r="4">
@@ -514,45 +514,45 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>581331.8771777112</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>729132.0559999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1782748.305177711</v>
+        <v>127221.842504221</v>
       </c>
       <c r="D5" t="n">
-        <v>658125.3148222882</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390330.64</v>
+        <v>167533.669495779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>465403.44</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.78</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2365800.819999999</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>294755.512</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>19892118.698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>20860855.95836001</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80312409.88234292</v>
       </c>
     </row>
     <row r="4">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>99181031.56528932</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>86030291.28743999</v>
       </c>
     </row>
     <row r="5">
@@ -684,24 +684,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>208456759.3244298</v>
+        <v>15677547.65179516</v>
       </c>
       <c r="C5" t="n">
-        <v>112282759.9618306</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>66594310.49040001</v>
+        <v>23858469.87289389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>65542766.45520001</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.7208</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>221959432.9323999</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11072803.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50288237.90232001</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4946632922.190081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3328602635.1552</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19861212100.35278</v>
       </c>
     </row>
     <row r="4">
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17362871708.41757</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>21777278769.3744</v>
       </c>
     </row>
     <row r="5">
@@ -823,24 +823,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>39016783720.0431</v>
+        <v>4019926518.4246</v>
       </c>
       <c r="C5" t="n">
-        <v>27728385851.71228</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14601734489.4232</v>
+        <v>6354903904.68084</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>17410105087.6872</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>51777325296.31499</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2129234825.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>11180695556.7352</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1279733769.006289</v>
+        <v>1161716706.325241</v>
       </c>
       <c r="B2" t="n">
-        <v>185800362076353</v>
+        <v>166463540220567.9</v>
       </c>
     </row>
   </sheetData>
